--- a/clean/unit/clean_unit/12013C.xlsx
+++ b/clean/unit/clean_unit/12013C.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>g/l;mg/l</t>
+          <t>mg/l</t>
         </is>
       </c>
       <c r="D7">

--- a/clean/unit/clean_unit/12013C.xlsx
+++ b/clean/unit/clean_unit/12013C.xlsx
@@ -370,7 +370,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Assay_Unit</t>
+          <t>Unit_Clean</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
